--- a/src/data/repositories/__tests__/spreadsheet-fixtures/spreadsheets/dataset-es.xlsx
+++ b/src/data/repositories/__tests__/spreadsheet-fixtures/spreadsheets/dataset-es.xlsx
@@ -26,55 +26,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t xml:space="preserve">Centro sanitário:</t>
+    <t xml:space="preserve">Centro sanitario:</t>
   </si>
   <si>
-    <t xml:space="preserve">Período:</t>
+    <t xml:space="preserve">Periodo reportado:</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjunto de dados processados</t>
+    <t xml:space="preserve">Conjunto de datos procesado</t>
   </si>
   <si>
-    <t xml:space="preserve">Seção Duas Categorias</t>
+    <t xml:space="preserve">Sección Dos Categorías</t>
   </si>
   <si>
-    <t xml:space="preserve">Opção A</t>
+    <t xml:space="preserve">Opción A</t>
   </si>
   <si>
-    <t xml:space="preserve">Opção B</t>
+    <t xml:space="preserve">Opción B</t>
   </si>
   <si>
-    <t xml:space="preserve">Opção 1</t>
+    <t xml:space="preserve">Opción 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Opção 2</t>
+    <t xml:space="preserve">Opción 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 0</t>
+    <t xml:space="preserve">Elemento de datos 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 1</t>
+    <t xml:space="preserve">Elemento de datos 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 2</t>
+    <t xml:space="preserve">Elemento de datos 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Seção padrão</t>
+    <t xml:space="preserve">Sección predeterminada</t>
   </si>
   <si>
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
-    <t xml:space="preserve">Seção X/Y</t>
+    <t xml:space="preserve">Sección X/Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Opção X</t>
+    <t xml:space="preserve">Opción X</t>
   </si>
   <si>
-    <t xml:space="preserve">Opção Y</t>
+    <t xml:space="preserve">Opción Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Seção de campos cinza</t>
+    <t xml:space="preserve">Sección de campos grises</t>
   </si>
   <si>
     <t xml:space="preserve">Foo</t>
@@ -92,40 +92,40 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 3</t>
+    <t xml:space="preserve">Elemento de datos 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Seção de um campo cinza</t>
+    <t xml:space="preserve">Sección de un campo gris</t>
   </si>
   <si>
-    <t xml:space="preserve">Vermelho</t>
+    <t xml:space="preserve">Rojo</t>
   </si>
   <si>
     <t xml:space="preserve">Azul</t>
   </si>
   <si>
-    <t xml:space="preserve">Amarelo</t>
+    <t xml:space="preserve">Amarillo</t>
   </si>
   <si>
     <t xml:space="preserve">Verde</t>
   </si>
   <si>
-    <t xml:space="preserve">Preto</t>
+    <t xml:space="preserve">Negro</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 4</t>
+    <t xml:space="preserve">Elemento de datos 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 5</t>
+    <t xml:space="preserve">Elemento de datos 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Seção de combinações de categorias</t>
+    <t xml:space="preserve">Sección de combinaciones de categorías</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 6</t>
+    <t xml:space="preserve">Elemento de datos 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemento de dados 7</t>
+    <t xml:space="preserve">Elemento de datos 7</t>
   </si>
 </sst>
 </file>
@@ -3705,7 +3705,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
